--- a/biology/Botanique/Helvelle/Helvelle.xlsx
+++ b/biology/Botanique/Helvelle/Helvelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helvella
 Helvella (les helvelles), est un genre de champignons ascomycètes de la famille des Helvellacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur nom a été tiré du latin helvella, « petit chou », en référence à l'aspect parfois frisé ou alvéolé, toujours contourné, voire biscornu (au sens propre), de leur chapeau, posé sur un pied lisse mais souvent aussi côtelé ou lacuneux.
 Ce genre comprend plus d'une centaine d'espèces, dont les plus communes sont Helvella crispa, l'espèce type, Helvella elastica, Helvella leucomelaena, Helvella lacunosa, Helvella monachella et Helvella acetabulum.
@@ -546,9 +560,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helvella a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helvella a pour synonymes :
 Biverpa (Fr.) Boud.
 Boletolichen Jussieu, 1789
 Coelomorum Paulet
@@ -585,9 +601,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon GBIF       (16 mai 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon GBIF       (16 mai 2022) :
 Helvella acetabuloides X.C.Wang &amp; W.Y.Zhuang
 Helvella acetabulum (L.) Quél.
 Helvella adhaerens Peck
